--- a/src/scripts/Productos.xlsx
+++ b/src/scripts/Productos.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelvalenzuela/Desktop/SistemaSunmex/sistemasunmex/src/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9014F95-2E81-254B-A216-9B2174FD8DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C97EFAA-B0AE-0247-805A-7CD520168C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5980" windowWidth="27640" windowHeight="16680" xr2:uid="{988CC1CB-E479-F14E-911E-22FE1A9DB8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$110</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="224">
   <si>
     <t>sku</t>
   </si>
@@ -72,6 +76,642 @@
   </si>
   <si>
     <t>GUMM SHRIMP 2OZ/6CT</t>
+  </si>
+  <si>
+    <t>CER-NPA-000</t>
+  </si>
+  <si>
+    <t>VIG PARTY</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #0 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-000</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #0 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-001</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #1 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-001</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #1 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-002</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #2 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-002</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #2 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-003</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #3 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-003</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #3 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-004</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #4 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-004</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #4 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-005</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #5 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-005</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #5 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-006</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #6 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-006</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #6 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-007</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #7 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-007</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #7 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-008</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #8 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-008</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #8 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-009</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #9 AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-009</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #9 ROSA BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPA-00X</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #? AZUL BORDE</t>
+  </si>
+  <si>
+    <t>CER-NPR-00X</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL CERA #? ROSA BORDE</t>
+  </si>
+  <si>
+    <t>LUM-NUA-000</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #0 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-000</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #0 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-000</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #0 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>LUM-NUR-000</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #0 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-001</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #1 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-001</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #1 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-001</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #1 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>LUM-NUR-001</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #1 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-002</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #2 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-002</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #2 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-002</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #2 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #2 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-003</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #3 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-003</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #3 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-003</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #3 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>LUM-NUR-003</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #3 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-004</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #4 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-004</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #4 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-004</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #4 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>LUM-NUR-004</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #4 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-005</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #5 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-005</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #5 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-005</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #5 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>LUM-NUR-005</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #5 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-006</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #6 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-006</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #6 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-006</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #6 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>LUM-NUR-006</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #6 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-007</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #7 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-007</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #7 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-007</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #7 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>LUM-NUR-007</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #7 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-008</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #8 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-008</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #8 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-008</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #8 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>LUM-NUR-008</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #8 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-009</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #9 BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-009</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #9 DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-009</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #9 DELUX SILVER</t>
+  </si>
+  <si>
+    <t>LUM-NUR-009</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #9 PINK</t>
+  </si>
+  <si>
+    <t>LUM-NUA-00X</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #? BLUE</t>
+  </si>
+  <si>
+    <t>LUM-NUD-00X</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #? DELUX GOLD</t>
+  </si>
+  <si>
+    <t>LUM-NUP-00X</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #? DELUX SILVER</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL NUM #? PINK</t>
+  </si>
+  <si>
+    <t>LUM-SEN-004</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL PLAIN BLUE</t>
+  </si>
+  <si>
+    <t>LUM-SEN-006</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL PLAIN DELUXE GOLD</t>
+  </si>
+  <si>
+    <t>LUM-SEN-007</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL PLAIN DELUXE SILVER</t>
+  </si>
+  <si>
+    <t>LUM-SEN-002</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL PLAIN GREEN</t>
+  </si>
+  <si>
+    <t>LUM-SEN-005</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL PLAIN PURPLE</t>
+  </si>
+  <si>
+    <t>LUM-SEN-003</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL PLAIN RED</t>
+  </si>
+  <si>
+    <t>LUM-SEN-008</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL PLAIN ROSE GOLD</t>
+  </si>
+  <si>
+    <t>LUM-SEN-001</t>
+  </si>
+  <si>
+    <t>DIANDI CANDL PLAIN YELLOW</t>
+  </si>
+  <si>
+    <t>LUM-LET-015</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE  FELICIDADES AZUL</t>
+  </si>
+  <si>
+    <t>LUM-LET-007</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE AZUL FELIZ CU SPAN</t>
+  </si>
+  <si>
+    <t>LUM-LET-003</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE BLACK GOLD ENGLISH</t>
+  </si>
+  <si>
+    <t>LUM-LET-004</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE BLACK WHITE ENGLISH</t>
+  </si>
+  <si>
+    <t>LUM-LET-005</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE BLUE HBD ENGLISH</t>
+  </si>
+  <si>
+    <t>LUM-LET-018</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE FELICIDADES AMARILLO</t>
+  </si>
+  <si>
+    <t>LUM-LET-016</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE FELICIDADES MORADO</t>
+  </si>
+  <si>
+    <t>LUM-LET-019</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE FELICIDADES ROJO</t>
+  </si>
+  <si>
+    <t>LUM-LET-017</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE FELICIDADES VERDE</t>
+  </si>
+  <si>
+    <t>LUM-LET-001</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE FOX BLUE ENGLISH</t>
+  </si>
+  <si>
+    <t>LUM-LET-002</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE FOX PINK ENGLISH</t>
+  </si>
+  <si>
+    <t>LUM-LET-011</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE GIRAFE BLUE ENGLISH</t>
+  </si>
+  <si>
+    <t>LUM-LET-012</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE GIRAFE PINK ENGLISH</t>
+  </si>
+  <si>
+    <t>LUM-LET-010</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE NEGRO BLANCO FELIZ</t>
+  </si>
+  <si>
+    <t>LUM-LET-009</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE NEGRO DORADO FELIZ</t>
+  </si>
+  <si>
+    <t>LUM-LET-006</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE PINK HBD ENGLISH</t>
+  </si>
+  <si>
+    <t>LUM-LET-008</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE ROSA FELIZ CU SPAN</t>
+  </si>
+  <si>
+    <t>LUM-LET-013</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE ROSE GOLD ENGLISH</t>
+  </si>
+  <si>
+    <t>LUM-LET-014</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE ROSE GOLD SPANOL</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE SPARK BLUE ENGLI</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE SPARK BLUE SPANISH</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE SPARK PINK ENGLISH</t>
+  </si>
+  <si>
+    <t>DIANDI CANDLE SPARK PINK SPANISH</t>
+  </si>
+  <si>
+    <t>LUM-SEF-001</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS  SEN-FUNC YELLOW</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS BLUE</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS GOLD</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS PURPLE</t>
+  </si>
+  <si>
+    <t>LUM-SEF-004</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS SEN-FUNC BLUE</t>
+  </si>
+  <si>
+    <t>LUM-SEF-006</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS SEN-FUNC GOLD</t>
+  </si>
+  <si>
+    <t>LUM-SEF-005</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS SEN-FUNC PURPLE</t>
+  </si>
+  <si>
+    <t>LUM-SEF-008</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS SEN-FUNC ROSEGOLD</t>
+  </si>
+  <si>
+    <t>LUM-SEF-007</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS SEN-FUNC SILVER</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE SPARKS SILVER</t>
+  </si>
+  <si>
+    <t>TOP-MES-003</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE TOPPER S/V GOLD 12CM</t>
+  </si>
+  <si>
+    <t>TOP-MES-004</t>
+  </si>
+  <si>
+    <t>SUS BIRTH CAKE TOPPER S/V SILVER 12CM</t>
+  </si>
+  <si>
+    <t>ABARROTES</t>
+  </si>
+  <si>
+    <t>NAVOLATO</t>
+  </si>
+  <si>
+    <t>NAVOL CHAMOY MANGO 1LT/15CT</t>
   </si>
 </sst>
 </file>
@@ -112,10 +752,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,15 +1091,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB07D6B2-B679-6A42-94AF-8DA0C731B6B2}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -515,6 +1157,2901 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>29020</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7503023529020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3">
+        <v>5.5</v>
+      </c>
+      <c r="G3">
+        <v>7.89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCE6E46-615B-EB4E-BD82-A642CB2FA9F7}">
+  <dimension ref="A1:H110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>71078</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>632665571078</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>0.82</v>
+      </c>
+      <c r="G2">
+        <v>1.29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>71184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>632665571184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>0.82</v>
+      </c>
+      <c r="G3">
+        <v>1.29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>71085</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>632665571085</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>0.82</v>
+      </c>
+      <c r="G4">
+        <v>1.29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>71191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>632665571191</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0.82</v>
+      </c>
+      <c r="G5">
+        <v>1.29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>71092</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>632665571092</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>0.82</v>
+      </c>
+      <c r="G6">
+        <v>1.29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>71207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>632665571207</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>0.82</v>
+      </c>
+      <c r="G7">
+        <v>1.29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>71108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>632665571108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>0.82</v>
+      </c>
+      <c r="G8">
+        <v>1.29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>71214</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>632665571214</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>0.82</v>
+      </c>
+      <c r="G9">
+        <v>1.29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>71115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3">
+        <v>632665571115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>0.82</v>
+      </c>
+      <c r="G10">
+        <v>1.29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>71221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3">
+        <v>632665571221</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>0.82</v>
+      </c>
+      <c r="G11">
+        <v>1.29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>71122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
+        <v>632665571122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>0.82</v>
+      </c>
+      <c r="G12">
+        <v>1.29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>71238</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
+        <v>632665571238</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>0.82</v>
+      </c>
+      <c r="G13">
+        <v>1.29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>71139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3">
+        <v>632665571139</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>0.82</v>
+      </c>
+      <c r="G14">
+        <v>1.29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>71245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3">
+        <v>632665571245</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>0.82</v>
+      </c>
+      <c r="G15">
+        <v>1.29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>71146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>632665571146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>0.82</v>
+      </c>
+      <c r="G16">
+        <v>1.29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>71252</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3">
+        <v>632665571252</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>0.82</v>
+      </c>
+      <c r="G17">
+        <v>1.29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>71153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
+        <v>632665571153</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <v>0.82</v>
+      </c>
+      <c r="G18">
+        <v>1.29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>71269</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="3">
+        <v>632665571269</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19">
+        <v>0.82</v>
+      </c>
+      <c r="G19">
+        <v>1.29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>71160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3">
+        <v>632665571160</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>0.82</v>
+      </c>
+      <c r="G20">
+        <v>1.29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>71276</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3">
+        <v>632665571276</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>0.82</v>
+      </c>
+      <c r="G21">
+        <v>1.29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>71177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3">
+        <v>632665571177</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>0.82</v>
+      </c>
+      <c r="G22">
+        <v>1.29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>71283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3">
+        <v>632665571283</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>0.82</v>
+      </c>
+      <c r="G23">
+        <v>1.29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>70606</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3">
+        <v>632665570606</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24">
+        <v>1.85</v>
+      </c>
+      <c r="G24">
+        <v>2.99</v>
+      </c>
+      <c r="H24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>80385</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3">
+        <v>632665570385</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>1.85</v>
+      </c>
+      <c r="G25">
+        <v>2.99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>70491</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3">
+        <v>632665570491</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>1.85</v>
+      </c>
+      <c r="G26">
+        <v>2.99</v>
+      </c>
+      <c r="H26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>70712</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3">
+        <v>632665570712</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>1.85</v>
+      </c>
+      <c r="G27">
+        <v>2.99</v>
+      </c>
+      <c r="H27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>70514</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3">
+        <v>632665570514</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <v>1.85</v>
+      </c>
+      <c r="G28">
+        <v>2.99</v>
+      </c>
+      <c r="H28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>70293</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3">
+        <v>632665570293</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>1.85</v>
+      </c>
+      <c r="G29">
+        <v>2.99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>70408</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="3">
+        <v>632665570408</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>1.85</v>
+      </c>
+      <c r="G30">
+        <v>2.99</v>
+      </c>
+      <c r="H30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>70620</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="3">
+        <v>632665570620</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31">
+        <v>1.85</v>
+      </c>
+      <c r="G31">
+        <v>2.58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>70521</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3">
+        <v>632665570521</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32">
+        <v>1.85</v>
+      </c>
+      <c r="G32">
+        <v>2.99</v>
+      </c>
+      <c r="H32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>80309</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3">
+        <v>632665570309</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33">
+        <v>1.85</v>
+      </c>
+      <c r="G33">
+        <v>2.99</v>
+      </c>
+      <c r="H33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>70415</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="3">
+        <v>632665570415</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34">
+        <v>1.85</v>
+      </c>
+      <c r="G34">
+        <v>2.99</v>
+      </c>
+      <c r="H34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>70637</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="3">
+        <v>632665570637</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35">
+        <v>1.85</v>
+      </c>
+      <c r="G35">
+        <v>2.99</v>
+      </c>
+      <c r="H35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>70538</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="3">
+        <v>632665570538</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36">
+        <v>1.85</v>
+      </c>
+      <c r="G36">
+        <v>2.99</v>
+      </c>
+      <c r="H36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>70316</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="3">
+        <v>632665570316</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37">
+        <v>1.85</v>
+      </c>
+      <c r="G37">
+        <v>2.99</v>
+      </c>
+      <c r="H37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>70422</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="3">
+        <v>632665570422</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38">
+        <v>1.85</v>
+      </c>
+      <c r="G38">
+        <v>2.99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>70644</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="3">
+        <v>632665570644</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39">
+        <v>1.85</v>
+      </c>
+      <c r="G39">
+        <v>2.99</v>
+      </c>
+      <c r="H39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>70545</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="3">
+        <v>632665570545</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40">
+        <v>1.85</v>
+      </c>
+      <c r="G40">
+        <v>2.99</v>
+      </c>
+      <c r="H40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>70323</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="3">
+        <v>632665570323</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41">
+        <v>1.85</v>
+      </c>
+      <c r="G41">
+        <v>2.99</v>
+      </c>
+      <c r="H41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>70439</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3">
+        <v>632665570439</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42">
+        <v>1.85</v>
+      </c>
+      <c r="G42">
+        <v>2.99</v>
+      </c>
+      <c r="H42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>70651</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="3">
+        <v>632665570651</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43">
+        <v>1.85</v>
+      </c>
+      <c r="G43">
+        <v>2.99</v>
+      </c>
+      <c r="H43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>70552</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="3">
+        <v>632665570552</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44">
+        <v>1.85</v>
+      </c>
+      <c r="G44">
+        <v>2.99</v>
+      </c>
+      <c r="H44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>70330</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="3">
+        <v>632665570330</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45">
+        <v>1.85</v>
+      </c>
+      <c r="G45">
+        <v>2.99</v>
+      </c>
+      <c r="H45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>70446</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3">
+        <v>632665570446</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46">
+        <v>1.85</v>
+      </c>
+      <c r="G46">
+        <v>2.99</v>
+      </c>
+      <c r="H46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>70668</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="3">
+        <v>632665570668</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47">
+        <v>1.85</v>
+      </c>
+      <c r="G47">
+        <v>2.99</v>
+      </c>
+      <c r="H47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>70569</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="3">
+        <v>632665570569</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48">
+        <v>1.85</v>
+      </c>
+      <c r="G48">
+        <v>2.99</v>
+      </c>
+      <c r="H48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>70347</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="3">
+        <v>632665570347</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49">
+        <v>1.85</v>
+      </c>
+      <c r="G49">
+        <v>2.99</v>
+      </c>
+      <c r="H49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>70453</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="3">
+        <v>632665570453</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50">
+        <v>1.85</v>
+      </c>
+      <c r="G50">
+        <v>2.99</v>
+      </c>
+      <c r="H50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>70675</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="3">
+        <v>632665570675</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51">
+        <v>1.85</v>
+      </c>
+      <c r="G51">
+        <v>2.99</v>
+      </c>
+      <c r="H51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>70576</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="3">
+        <v>632665570576</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52">
+        <v>1.85</v>
+      </c>
+      <c r="G52">
+        <v>2.99</v>
+      </c>
+      <c r="H52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>70354</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="3">
+        <v>632665570354</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53">
+        <v>1.85</v>
+      </c>
+      <c r="G53">
+        <v>2.99</v>
+      </c>
+      <c r="H53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>70460</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="3">
+        <v>632665570460</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54">
+        <v>1.85</v>
+      </c>
+      <c r="G54">
+        <v>2.99</v>
+      </c>
+      <c r="H54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>70682</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="3">
+        <v>632665570682</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55">
+        <v>1.85</v>
+      </c>
+      <c r="G55">
+        <v>2.99</v>
+      </c>
+      <c r="H55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>70583</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="3">
+        <v>632665570583</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56">
+        <v>1.85</v>
+      </c>
+      <c r="G56">
+        <v>2.99</v>
+      </c>
+      <c r="H56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>80361</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="3">
+        <v>632665570361</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57">
+        <v>1.85</v>
+      </c>
+      <c r="G57">
+        <v>2.58</v>
+      </c>
+      <c r="H57" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>70477</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="3">
+        <v>632665570477</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58">
+        <v>1.85</v>
+      </c>
+      <c r="G58">
+        <v>2.99</v>
+      </c>
+      <c r="H58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>70699</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="3">
+        <v>632665570699</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59">
+        <v>1.85</v>
+      </c>
+      <c r="G59">
+        <v>2.58</v>
+      </c>
+      <c r="H59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>70590</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="3">
+        <v>632665570590</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60">
+        <v>1.85</v>
+      </c>
+      <c r="G60">
+        <v>2.99</v>
+      </c>
+      <c r="H60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>70378</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="3">
+        <v>632665570378</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61">
+        <v>1.85</v>
+      </c>
+      <c r="G61">
+        <v>2.99</v>
+      </c>
+      <c r="H61" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>70484</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="3">
+        <v>632665570484</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62">
+        <v>1.85</v>
+      </c>
+      <c r="G62">
+        <v>2.99</v>
+      </c>
+      <c r="H62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>70705</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="3">
+        <v>632665570705</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63">
+        <v>1.85</v>
+      </c>
+      <c r="G63">
+        <v>2.99</v>
+      </c>
+      <c r="H63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>70613</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="3">
+        <v>632665570613</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64">
+        <v>1.85</v>
+      </c>
+      <c r="G64">
+        <v>2.99</v>
+      </c>
+      <c r="H64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>80392</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="3">
+        <v>632665570392</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65">
+        <v>1.85</v>
+      </c>
+      <c r="G65">
+        <v>2.99</v>
+      </c>
+      <c r="H65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>70507</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="3">
+        <v>632665570507</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66">
+        <v>1.85</v>
+      </c>
+      <c r="G66">
+        <v>2.99</v>
+      </c>
+      <c r="H66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>70729</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="3">
+        <v>632665570729</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67">
+        <v>1.85</v>
+      </c>
+      <c r="G67">
+        <v>2.99</v>
+      </c>
+      <c r="H67" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>70767</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="3">
+        <v>632665570767</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68">
+        <v>1.69</v>
+      </c>
+      <c r="G68">
+        <v>2.69</v>
+      </c>
+      <c r="H68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>70781</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="3">
+        <v>632665570781</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>146</v>
+      </c>
+      <c r="F69">
+        <v>1.69</v>
+      </c>
+      <c r="G69">
+        <v>2.69</v>
+      </c>
+      <c r="H69" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>70798</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="3">
+        <v>632665570798</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70">
+        <v>1.69</v>
+      </c>
+      <c r="G70">
+        <v>2.69</v>
+      </c>
+      <c r="H70" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70743</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="3">
+        <v>632665570743</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71">
+        <v>1.69</v>
+      </c>
+      <c r="G71">
+        <v>2.69</v>
+      </c>
+      <c r="H71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70774</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="3">
+        <v>632665570774</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>152</v>
+      </c>
+      <c r="F72">
+        <v>1.69</v>
+      </c>
+      <c r="G72">
+        <v>2.69</v>
+      </c>
+      <c r="H72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>70750</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="3">
+        <v>632665570750</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>154</v>
+      </c>
+      <c r="F73">
+        <v>1.69</v>
+      </c>
+      <c r="G73">
+        <v>2.69</v>
+      </c>
+      <c r="H73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>70941</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="3">
+        <v>632665570941</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>156</v>
+      </c>
+      <c r="F74">
+        <v>1.69</v>
+      </c>
+      <c r="G74">
+        <v>2.69</v>
+      </c>
+      <c r="H74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>70736</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="3">
+        <v>632665570736</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>158</v>
+      </c>
+      <c r="F75">
+        <v>1.69</v>
+      </c>
+      <c r="G75">
+        <v>2.69</v>
+      </c>
+      <c r="H75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>71597</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="3">
+        <v>632665571597</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76">
+        <v>1.85</v>
+      </c>
+      <c r="G76">
+        <v>2.99</v>
+      </c>
+      <c r="H76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>70866</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="3">
+        <v>632665570866</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77">
+        <v>1.85</v>
+      </c>
+      <c r="G77">
+        <v>2.99</v>
+      </c>
+      <c r="H77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>70279</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="3">
+        <v>632665570279</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78">
+        <v>1.85</v>
+      </c>
+      <c r="G78">
+        <v>2.99</v>
+      </c>
+      <c r="H78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>70286</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="3">
+        <v>632665570286</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>166</v>
+      </c>
+      <c r="F79">
+        <v>1.85</v>
+      </c>
+      <c r="G79">
+        <v>2.99</v>
+      </c>
+      <c r="H79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>70842</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="3">
+        <v>632665570842</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>168</v>
+      </c>
+      <c r="F80">
+        <v>1.85</v>
+      </c>
+      <c r="G80">
+        <v>2.99</v>
+      </c>
+      <c r="H80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>71627</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="3">
+        <v>632665571627</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81">
+        <v>1.85</v>
+      </c>
+      <c r="G81">
+        <v>2.99</v>
+      </c>
+      <c r="H81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>71603</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="3">
+        <v>632665571603</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82">
+        <v>1.85</v>
+      </c>
+      <c r="G82">
+        <v>2.99</v>
+      </c>
+      <c r="H82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>71634</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="3">
+        <v>632665571634</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>174</v>
+      </c>
+      <c r="F83">
+        <v>1.85</v>
+      </c>
+      <c r="G83">
+        <v>2.99</v>
+      </c>
+      <c r="H83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>71610</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="3">
+        <v>632665571610</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84">
+        <v>1.85</v>
+      </c>
+      <c r="G84">
+        <v>2.99</v>
+      </c>
+      <c r="H84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>70255</v>
+      </c>
+      <c r="B85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="3">
+        <v>632665570255</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>178</v>
+      </c>
+      <c r="F85">
+        <v>1.85</v>
+      </c>
+      <c r="G85">
+        <v>2.99</v>
+      </c>
+      <c r="H85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>70262</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="3">
+        <v>632665570262</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>180</v>
+      </c>
+      <c r="F86">
+        <v>1.85</v>
+      </c>
+      <c r="G86">
+        <v>2.99</v>
+      </c>
+      <c r="H86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>70903</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="3">
+        <v>632665570903</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>182</v>
+      </c>
+      <c r="F87">
+        <v>1.85</v>
+      </c>
+      <c r="G87">
+        <v>2.99</v>
+      </c>
+      <c r="H87" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>70910</v>
+      </c>
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="3">
+        <v>632665570910</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88">
+        <v>1.85</v>
+      </c>
+      <c r="G88">
+        <v>2.99</v>
+      </c>
+      <c r="H88" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>70897</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="3">
+        <v>632665570897</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89">
+        <v>1.85</v>
+      </c>
+      <c r="G89">
+        <v>2.99</v>
+      </c>
+      <c r="H89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>70880</v>
+      </c>
+      <c r="B90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="3">
+        <v>632665570880</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>188</v>
+      </c>
+      <c r="F90">
+        <v>1.85</v>
+      </c>
+      <c r="G90">
+        <v>2.99</v>
+      </c>
+      <c r="H90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>70859</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" s="3">
+        <v>632665570859</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91">
+        <v>1.85</v>
+      </c>
+      <c r="G91">
+        <v>2.99</v>
+      </c>
+      <c r="H91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>70873</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" s="3">
+        <v>632665570873</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>192</v>
+      </c>
+      <c r="F92">
+        <v>1.85</v>
+      </c>
+      <c r="G92">
+        <v>2.99</v>
+      </c>
+      <c r="H92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>70927</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="3">
+        <v>632665570927</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93">
+        <v>1.85</v>
+      </c>
+      <c r="G93">
+        <v>2.99</v>
+      </c>
+      <c r="H93" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>70934</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="3">
+        <v>632665570934</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94">
+        <v>1.85</v>
+      </c>
+      <c r="G94">
+        <v>2.99</v>
+      </c>
+      <c r="H94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>31729</v>
+      </c>
+      <c r="C95" s="3">
+        <v>7674611117290</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>197</v>
+      </c>
+      <c r="F95">
+        <v>1.86</v>
+      </c>
+      <c r="G95">
+        <v>2.99</v>
+      </c>
+      <c r="H95" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>41729</v>
+      </c>
+      <c r="C96" s="3">
+        <v>7674611117291</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>198</v>
+      </c>
+      <c r="F96">
+        <v>1.86</v>
+      </c>
+      <c r="G96">
+        <v>2.99</v>
+      </c>
+      <c r="H96" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>11729</v>
+      </c>
+      <c r="C97" s="3">
+        <v>7674611117292</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97">
+        <v>1.86</v>
+      </c>
+      <c r="G97">
+        <v>2.99</v>
+      </c>
+      <c r="H97" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>21729</v>
+      </c>
+      <c r="C98" s="3">
+        <v>767461111729</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>200</v>
+      </c>
+      <c r="F98">
+        <v>1.86</v>
+      </c>
+      <c r="G98">
+        <v>2.99</v>
+      </c>
+      <c r="H98" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>71290</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="3">
+        <v>632665571290</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>202</v>
+      </c>
+      <c r="F99">
+        <v>1.69</v>
+      </c>
+      <c r="G99">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H99" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>70804</v>
+      </c>
+      <c r="B100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="3">
+        <v>632665570804</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100">
+        <v>1.69</v>
+      </c>
+      <c r="G100">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H100" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>70828</v>
+      </c>
+      <c r="B101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="3">
+        <v>632665570828</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101">
+        <v>1.69</v>
+      </c>
+      <c r="G101">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H101" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>70811</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="3">
+        <v>632665570811</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>205</v>
+      </c>
+      <c r="F102">
+        <v>1.69</v>
+      </c>
+      <c r="G102">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>71320</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="3">
+        <v>632665571320</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>207</v>
+      </c>
+      <c r="F103">
+        <v>1.69</v>
+      </c>
+      <c r="G103">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H103" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>71344</v>
+      </c>
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="3">
+        <v>632665571344</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>209</v>
+      </c>
+      <c r="F104">
+        <v>1.69</v>
+      </c>
+      <c r="G104">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>81337</v>
+      </c>
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="3">
+        <v>632665571337</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>211</v>
+      </c>
+      <c r="F105">
+        <v>1.69</v>
+      </c>
+      <c r="G105">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H105" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>71368</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" s="3">
+        <v>632665571368</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>213</v>
+      </c>
+      <c r="F106">
+        <v>1.69</v>
+      </c>
+      <c r="G106">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H106" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>71351</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="3">
+        <v>632665571351</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>215</v>
+      </c>
+      <c r="F107">
+        <v>1.69</v>
+      </c>
+      <c r="G107">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>70835</v>
+      </c>
+      <c r="B108" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="3">
+        <v>632665570835</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>216</v>
+      </c>
+      <c r="F108">
+        <v>1.69</v>
+      </c>
+      <c r="G108">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>71030</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="3">
+        <v>632665571030</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>218</v>
+      </c>
+      <c r="F109">
+        <v>1.78</v>
+      </c>
+      <c r="G109">
+        <v>2.96</v>
+      </c>
+      <c r="H109" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>71047</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="3">
+        <v>632665571047</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>220</v>
+      </c>
+      <c r="F110">
+        <v>1.78</v>
+      </c>
+      <c r="G110">
+        <v>2.96</v>
+      </c>
+      <c r="H110" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
